--- a/assets/stages/maps/MapEditor/over.xlsx
+++ b/assets/stages/maps/MapEditor/over.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Python\Portal-2D-Python\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EFCE2A-D6A9-4A0B-9DFE-03CDD0DC3AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFB6EBC-C4C5-4E6E-A20D-1DB91AABD8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -2219,7 +2219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
@@ -2875,19 +2875,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="I5:X13"/>
+  <dimension ref="G3:Z17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>13</v>
+      </c>
+      <c r="X3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>13</v>
+      </c>
       <c r="I5">
         <v>12</v>
       </c>
@@ -2936,8 +2970,11 @@
       <c r="X5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="7:26" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>12</v>
       </c>
@@ -2987,7 +3024,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>13</v>
+      </c>
       <c r="I7">
         <v>12</v>
       </c>
@@ -3036,8 +3076,11 @@
       <c r="X7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="7:26" x14ac:dyDescent="0.25">
       <c r="I8">
         <v>12</v>
       </c>
@@ -3087,7 +3130,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>13</v>
+      </c>
       <c r="I9">
         <v>12</v>
       </c>
@@ -3136,8 +3182,11 @@
       <c r="X9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="7:26" x14ac:dyDescent="0.25">
       <c r="I10">
         <v>12</v>
       </c>
@@ -3187,7 +3236,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>13</v>
+      </c>
       <c r="I11">
         <v>12</v>
       </c>
@@ -3236,8 +3288,11 @@
       <c r="X11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="7:26" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>12</v>
       </c>
@@ -3287,7 +3342,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>13</v>
+      </c>
       <c r="I13">
         <v>12</v>
       </c>
@@ -3335,6 +3393,81 @@
       </c>
       <c r="X13">
         <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="Y15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>11</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>13</v>
+      </c>
+      <c r="U17">
+        <v>13</v>
+      </c>
+      <c r="W17">
+        <v>13</v>
+      </c>
+      <c r="Y17">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
